--- a/data/hotels_by_city/Houston/Houston_shard_609.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_609.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56780-d9769549-Reviews-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Staybridge-Suites-Tomball.h13400093.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,300 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r577257951-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>9769549</t>
+  </si>
+  <si>
+    <t>577257951</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Nice and clean hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recently booked a room here for my parents. I checked in to get the key for them and it was a pleasant experience. My parents enjoyed the room and said it was nice and clean. A one-night stay, but would book again if needed. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r548654340-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>548654340</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>New hotel, ideally situated near a freeway/several highways.  On a busy road, it’s a nice location for getting around the Houston area easily.  We were there for 6 days.  Nice rooms, very spacious, with a kitchen included.  Good breakfast and friendly staff.  Only downside was having to remind Housekeeping we needed towels and trash removed. Lots of free parking.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r517755924-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>517755924</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomball-business </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for a business trip. They served a breakfast each day I was there. There was hot food as well as cereal, cheeses, fresh fruit, etc.  They also have a customer appreciation Monday through Thursday where they serve beverages and hot food.  The food varies each night.  All employees were friendly, polite, and very helpful. The suite I was in was great! </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r492786563-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>492786563</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel with Extra space</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel due to its proximity to Premier Baseball fields in Tomball, TX. This hotel will provide you with extra space if travelling with children/teens, and there is outdoor space to utilize as well. There is a den downstairs with a large television that can be used to watch sporting events etc, for a group. We did not eat the breakfast we the times did not coordinate, but there is a complimentary breakfast. This hotel does not get 5 stars from me due to the lack of a ice machine on property. There is no ice at this hotel. The suggestion you will be given will be to turn on the tiny ice maker in your freezer in your room. This doe snot work for icing arms and filling coolers.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel due to its proximity to Premier Baseball fields in Tomball, TX. This hotel will provide you with extra space if travelling with children/teens, and there is outdoor space to utilize as well. There is a den downstairs with a large television that can be used to watch sporting events etc, for a group. We did not eat the breakfast we the times did not coordinate, but there is a complimentary breakfast. This hotel does not get 5 stars from me due to the lack of a ice machine on property. There is no ice at this hotel. The suggestion you will be given will be to turn on the tiny ice maker in your freezer in your room. This doe snot work for icing arms and filling coolers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r483973732-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>483973732</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Really mixed review</t>
+  </si>
+  <si>
+    <t>This is for longer stay "residence" like hotel.  The staff did try, but I felt that they were not on top of their game.  We had three rooms over 3 days utilized one handicapped accessible room.  For a person in a wheelchair, the beds were too high to get in and it was a real struggle. - probably impossible for a handicapped someone traveling alone.  The bathroom had a rail on one side of the toilet and on the back wall - which is ADA approved, but does not help someone who needs rails on both side of the toilet, which means someone had to be with her to use the toilet.  Then a group member witnessed a dog swimming in the pool and complained and the manager said, "Do you have a problem with that?" Well, indeed we do and so does the Texas Health Dept.  The only compensation for our group not using the pool was points on one person's IHG account.  Really poor response.  The breakfast was good and the person on refilling the items was very attentive. You could hear the traffic outside on the ground floor in the rooms.  Nice to have hot coffee available most of the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>This is for longer stay "residence" like hotel.  The staff did try, but I felt that they were not on top of their game.  We had three rooms over 3 days utilized one handicapped accessible room.  For a person in a wheelchair, the beds were too high to get in and it was a real struggle. - probably impossible for a handicapped someone traveling alone.  The bathroom had a rail on one side of the toilet and on the back wall - which is ADA approved, but does not help someone who needs rails on both side of the toilet, which means someone had to be with her to use the toilet.  Then a group member witnessed a dog swimming in the pool and complained and the manager said, "Do you have a problem with that?" Well, indeed we do and so does the Texas Health Dept.  The only compensation for our group not using the pool was points on one person's IHG account.  Really poor response.  The breakfast was good and the person on refilling the items was very attentive. You could hear the traffic outside on the ground floor in the rooms.  Nice to have hot coffee available most of the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r482972054-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>482972054</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent choice</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I were attending an 40th Wedding Anniversary Celebration at Main Street Crossing in Tomball, Texas. We had never been there before and when looking for hotels this seemed to be the closest to the venue. Well, we were about 4 minutes away! We had an accessible 2 queen bed suite. It was perfect and so very nice and large. I seem to be staying at more and more Staybridge Suites, I really like having a kitchen and there whole facility is like having a home away from home! This one had a very nice outdoor fireplace with a grilling area and nice pool.  Morning breakfast was very good and a nice gathering area. The Wolfgang Puck coffee was excellent and I am a South Louisiana Community Coffee Dark Roast drinker.  We were there on a weekend so did not get to enjoy evening social hour which is only Monday, Tuesday and Wednesday but breakfast is every morning!  I took some pics and the only thing I wish the doorway to the bedroom had some kind of handles because I am up early and they sleep late and I could not close the doors all the way so I would not disturb them with the living room tv.  What a great stay, would stay here again and definitely would recommend to my friends and family!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I were attending an 40th Wedding Anniversary Celebration at Main Street Crossing in Tomball, Texas. We had never been there before and when looking for hotels this seemed to be the closest to the venue. Well, we were about 4 minutes away! We had an accessible 2 queen bed suite. It was perfect and so very nice and large. I seem to be staying at more and more Staybridge Suites, I really like having a kitchen and there whole facility is like having a home away from home! This one had a very nice outdoor fireplace with a grilling area and nice pool.  Morning breakfast was very good and a nice gathering area. The Wolfgang Puck coffee was excellent and I am a South Louisiana Community Coffee Dark Roast drinker.  We were there on a weekend so did not get to enjoy evening social hour which is only Monday, Tuesday and Wednesday but breakfast is every morning!  I took some pics and the only thing I wish the doorway to the bedroom had some kind of handles because I am up early and they sleep late and I could not close the doors all the way so I would not disturb them with the living room tv.  What a great stay, would stay here again and definitely would recommend to my friends and family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r448371601-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>448371601</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Lock in your rate if you are an extended stay guest</t>
+  </si>
+  <si>
+    <t>We stayed here for about a month while our house was being renovated.  We originally booked the king suite which met our needs perfectly.  The rooms were sparkling clean, and all the supplies were in place to set up housekeeping.  The breakfasts were great, with rotating selections so that we had a variety of things to choose from every morning.  The breakfast area and the gathering places were kept neat and tidy.  The laundry facility was nice.The desk clerk was MIA on several occasions when we needed help--the desk was just left unattended.  We didn't know exactly how long we would have to say because  it depended on the progress of the renovation.  When we needed to extend our stay, we had to change rooms and were downgraded to a queen studio.  Also the rate increased because a wedding party had arrived and booked up the hotel.  Apparently, they charge what the market can bear and it doesn't help one bit that your are a club member or had been there over two weeks.  The queen studio is very cramped, by the way.This hotel is in a safe location and is relatively quiet because a lot of business men use it as an extended stay.  Nothing much around--you'll have to drive to get groceries or dine out.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for about a month while our house was being renovated.  We originally booked the king suite which met our needs perfectly.  The rooms were sparkling clean, and all the supplies were in place to set up housekeeping.  The breakfasts were great, with rotating selections so that we had a variety of things to choose from every morning.  The breakfast area and the gathering places were kept neat and tidy.  The laundry facility was nice.The desk clerk was MIA on several occasions when we needed help--the desk was just left unattended.  We didn't know exactly how long we would have to say because  it depended on the progress of the renovation.  When we needed to extend our stay, we had to change rooms and were downgraded to a queen studio.  Also the rate increased because a wedding party had arrived and booked up the hotel.  Apparently, they charge what the market can bear and it doesn't help one bit that your are a club member or had been there over two weeks.  The queen studio is very cramped, by the way.This hotel is in a safe location and is relatively quiet because a lot of business men use it as an extended stay.  Nothing much around--you'll have to drive to get groceries or dine out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r440517349-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>440517349</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Great manager and staff.</t>
+  </si>
+  <si>
+    <t>The wife and I had a great stay at the staybridge suites in tomball tx. The staff was great, and the manager was the best. The room hotel.com booked for us was a queen bed for us so we talked to the manager, I think his name was Jeff, I can't remember, and no problem at all he upgraded us to a bigger room with a king bed. every morning I was at there bread eat bar that was so good every day. I would see the manager and he would make a point to great the customers and make sure there stay was to there liking. I would always recommend this place to anyone with  who want to stay in a down to home kind of place. Thank you for your great service, we will be back againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>The wife and I had a great stay at the staybridge suites in tomball tx. The staff was great, and the manager was the best. The room hotel.com booked for us was a queen bed for us so we talked to the manager, I think his name was Jeff, I can't remember, and no problem at all he upgraded us to a bigger room with a king bed. every morning I was at there bread eat bar that was so good every day. I would see the manager and he would make a point to great the customers and make sure there stay was to there liking. I would always recommend this place to anyone with  who want to stay in a down to home kind of place. Thank you for your great service, we will be back againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r431638898-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>431638898</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Consistently Great Chain of Hotels</t>
+  </si>
+  <si>
+    <t>On a business trip and chose Staybridge because of the great customer service at other locations. This one did not disappoint!Staff very friendly and helpful. Courtesy shuttle to and from my office.  This is a brand new location so everything is new and up to date. I love the "social hour" where they serve food and have free wine and beer on tap. I don't have to leave the property to go to dinner. Can't say enough about this chain- i look for a Staybridge whenever i travel! MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>On a business trip and chose Staybridge because of the great customer service at other locations. This one did not disappoint!Staff very friendly and helpful. Courtesy shuttle to and from my office.  This is a brand new location so everything is new and up to date. I love the "social hour" where they serve food and have free wine and beer on tap. I don't have to leave the property to go to dinner. Can't say enough about this chain- i look for a Staybridge whenever i travel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r411411004-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>411411004</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Nice and new hotel for business stay.The room was clean and new. The decor is ok nothing fancy. The bed is really comfortable. The aircon is a bit noisy and can be annoying.The breakfast bar is average with only a few selection.The staffs are really helpful and friendly.Overall, a decent hotel but quite isolated.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Nice and new hotel for business stay.The room was clean and new. The decor is ok nothing fancy. The bed is really comfortable. The aircon is a bit noisy and can be annoying.The breakfast bar is average with only a few selection.The staffs are really helpful and friendly.Overall, a decent hotel but quite isolated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r405423655-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>405423655</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Very Nice! Close to Grand Parkway (99).</t>
+  </si>
+  <si>
+    <t>Not familiar with Staybridge Suites, but if this location is typical, I'm sold.  Very nice entrance..kind of Modern and Asian..but attractive.  Friendly desk person.  Great room.  We were there for 2 nights for family get together in nearby location.  We booked queen 1 bedroom suite. For a little less, you can book studio suite.   Loved the room.  Clean, attractive, much like a small condo.  Sofa made into bed with its own large TV.  Kitchen had solid surfaces and very well stocked.  Stainless steel pans, full size fridge, smooth cooking surface for 2 pots, large microwave.  There were dishes, silverware, everything you would need..even a dishwasher.  All appliances were stainless.  There was also a bar and 2 bar stools, and solid surface granite or granite like countertops.  Separate bedroom had large computer desk and bath.  Loved it!  Very comfortable.  Breakfast bar looked good and lots of choices.  Everything seemed fresh and Wolfgang Puck coffee.  Will certainly go back!  Thank you Staybridge Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Not familiar with Staybridge Suites, but if this location is typical, I'm sold.  Very nice entrance..kind of Modern and Asian..but attractive.  Friendly desk person.  Great room.  We were there for 2 nights for family get together in nearby location.  We booked queen 1 bedroom suite. For a little less, you can book studio suite.   Loved the room.  Clean, attractive, much like a small condo.  Sofa made into bed with its own large TV.  Kitchen had solid surfaces and very well stocked.  Stainless steel pans, full size fridge, smooth cooking surface for 2 pots, large microwave.  There were dishes, silverware, everything you would need..even a dishwasher.  All appliances were stainless.  There was also a bar and 2 bar stools, and solid surface granite or granite like countertops.  Separate bedroom had large computer desk and bath.  Loved it!  Very comfortable.  Breakfast bar looked good and lots of choices.  Everything seemed fresh and Wolfgang Puck coffee.  Will certainly go back!  Thank you Staybridge Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r394088051-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>394088051</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>New Staybridge that needs to work out some kinks</t>
+  </si>
+  <si>
+    <t>New Property, smaller rooms then most Staybridges, with small kitchenette, beds and do not offer different pillows and they caused me neck aches and staff does not really try to accommodate problems mostly when upper tier IHG member. nice out door pool and BBQ area and good breakfasts, Hope staff gets better at working on problems.Stormchaser says maybeMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>New Property, smaller rooms then most Staybridges, with small kitchenette, beds and do not offer different pillows and they caused me neck aches and staff does not really try to accommodate problems mostly when upper tier IHG member. nice out door pool and BBQ area and good breakfasts, Hope staff gets better at working on problems.Stormchaser says maybeMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +835,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +867,829 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_609.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_609.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r595992146-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>9769549</t>
+  </si>
+  <si>
+    <t>595992146</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Nice horel</t>
+  </si>
+  <si>
+    <t>Stayed here as a recommendation of the business I was visiting in Spring.  I arrived very late in the evening and received the last room in the hotel due to a local power outage forcing many people to stay in hotels with A.C.  I had prepaid so luckily I had a room. The room itself is nice and the bed very comfortable. Lovely flat screen tv and free WiFi. The one very big downside was my room location #134.  Getting into bed at 2:00 am, I was rudely awakened early by people sitting outside my bedroom window at a smoking table near the pool.  Why in the world would the hotel place a smoking table about 10 feet from where my bed was located?? I’m very glad I closed the curtains when I went to bed or they would be able to stare right in on me!! This is a horrible mistake and should be corrected immediately. Otherwise the breakfast is nice, hotel is clean and the staff is pleasant. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here as a recommendation of the business I was visiting in Spring.  I arrived very late in the evening and received the last room in the hotel due to a local power outage forcing many people to stay in hotels with A.C.  I had prepaid so luckily I had a room. The room itself is nice and the bed very comfortable. Lovely flat screen tv and free WiFi. The one very big downside was my room location #134.  Getting into bed at 2:00 am, I was rudely awakened early by people sitting outside my bedroom window at a smoking table near the pool.  Why in the world would the hotel place a smoking table about 10 feet from where my bed was located?? I’m very glad I closed the curtains when I went to bed or they would be able to stare right in on me!! This is a horrible mistake and should be corrected immediately. Otherwise the breakfast is nice, hotel is clean and the staff is pleasant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r590075696-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>590075696</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Wonderful suites</t>
+  </si>
+  <si>
+    <t>My son and I stayed at the Staybridge for a baseball tournament.  I did not choose this facility but it was an outstanding pick.  The staff were super friendly and helpful right from the beginning.   The room was well outfitted with a refrigerator (not mini), cooktop stove, microwave, sink and dishwasher.  The room was comfortable.  The breakfast was amazing!  They had fresh fruit, fresh scrambled eggs, a variety of breads and a fountain drink dispenser (with Diet Coke!)!  As it’s always necessary to do laundry on these trips, I was pleasantly surprised that the machines were free, maintained and clean!  The pool area was beautiful with a lovely area to grill and hang out!  Although the location is a bit off the beaten path, I would most definitely stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>My son and I stayed at the Staybridge for a baseball tournament.  I did not choose this facility but it was an outstanding pick.  The staff were super friendly and helpful right from the beginning.   The room was well outfitted with a refrigerator (not mini), cooktop stove, microwave, sink and dishwasher.  The room was comfortable.  The breakfast was amazing!  They had fresh fruit, fresh scrambled eggs, a variety of breads and a fountain drink dispenser (with Diet Coke!)!  As it’s always necessary to do laundry on these trips, I was pleasantly surprised that the machines were free, maintained and clean!  The pool area was beautiful with a lovely area to grill and hang out!  Although the location is a bit off the beaten path, I would most definitely stay here again.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r577257951-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
-    <t>56780</t>
-  </si>
-  <si>
-    <t>9769549</t>
-  </si>
-  <si>
     <t>577257951</t>
   </si>
   <si>
@@ -177,9 +237,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r548654340-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -219,7 +276,55 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r495136143-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>495136143</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Consistent Properties</t>
+  </si>
+  <si>
+    <t>Second stay for business.  Always outstanding service and clean facilities. They provide a shuttle if your facility is nearby.My favorite feature is the breakfast and dinner in the evening where they also provide free beer and wine. I try to find a Staybridge wherever i travel. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Second stay for business.  Always outstanding service and clean facilities. They provide a shuttle if your facility is nearby.My favorite feature is the breakfast and dinner in the evening where they also provide free beer and wine. I try to find a Staybridge wherever i travel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r494426368-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>494426368</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>Easy checking in:) Kind staff:) Beautiful hotel, checking area, breakfast area, &amp; room:)) Pristine clean &amp; modern:) Great kitchen:) Nice big shower:) Large sectional couch:) Very comfy bed:) Loved our experience &amp; will be back when in the area:) MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Easy checking in:) Kind staff:) Beautiful hotel, checking area, breakfast area, &amp; room:)) Pristine clean &amp; modern:) Great kitchen:) Nice big shower:) Large sectional couch:) Very comfy bed:) Loved our experience &amp; will be back when in the area:) More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r492786563-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
@@ -237,15 +342,6 @@
     <t>We have stayed at this hotel due to its proximity to Premier Baseball fields in Tomball, TX. This hotel will provide you with extra space if travelling with children/teens, and there is outdoor space to utilize as well. There is a den downstairs with a large television that can be used to watch sporting events etc, for a group. We did not eat the breakfast we the times did not coordinate, but there is a complimentary breakfast. This hotel does not get 5 stars from me due to the lack of a ice machine on property. There is no ice at this hotel. The suggestion you will be given will be to turn on the tiny ice maker in your freezer in your room. This doe snot work for icing arms and filling coolers.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded June 27, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 27, 2017</t>
-  </si>
-  <si>
     <t>We have stayed at this hotel due to its proximity to Premier Baseball fields in Tomball, TX. This hotel will provide you with extra space if travelling with children/teens, and there is outdoor space to utilize as well. There is a den downstairs with a large television that can be used to watch sporting events etc, for a group. We did not eat the breakfast we the times did not coordinate, but there is a complimentary breakfast. This hotel does not get 5 stars from me due to the lack of a ice machine on property. There is no ice at this hotel. The suggestion you will be given will be to turn on the tiny ice maker in your freezer in your room. This doe snot work for icing arms and filling coolers.More</t>
   </si>
   <si>
@@ -294,6 +390,63 @@
     <t>My husband, daughter and I were attending an 40th Wedding Anniversary Celebration at Main Street Crossing in Tomball, Texas. We had never been there before and when looking for hotels this seemed to be the closest to the venue. Well, we were about 4 minutes away! We had an accessible 2 queen bed suite. It was perfect and so very nice and large. I seem to be staying at more and more Staybridge Suites, I really like having a kitchen and there whole facility is like having a home away from home! This one had a very nice outdoor fireplace with a grilling area and nice pool.  Morning breakfast was very good and a nice gathering area. The Wolfgang Puck coffee was excellent and I am a South Louisiana Community Coffee Dark Roast drinker.  We were there on a weekend so did not get to enjoy evening social hour which is only Monday, Tuesday and Wednesday but breakfast is every morning!  I took some pics and the only thing I wish the doorway to the bedroom had some kind of handles because I am up early and they sleep late and I could not close the doors all the way so I would not disturb them with the living room tv.  What a great stay, would stay here again and definitely would recommend to my friends and family!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r480980960-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>480980960</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>We stayed at this property on (2) separate occasions recently.  The rooms were clean.  The free breakfast rates very good relative to most hotels offering free breakfasts.  The rooms are spacious, especially some of the larger suites.  The rooms are a little pricey, especially when the taxes and fees are added.  Consequently, I don't rate the hotel as a great value.  I will stay there again when I visit Tomball and require a suite type room.  I have no interest in Staybridge Suites, financial or otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this property on (2) separate occasions recently.  The rooms were clean.  The free breakfast rates very good relative to most hotels offering free breakfasts.  The rooms are spacious, especially some of the larger suites.  The rooms are a little pricey, especially when the taxes and fees are added.  Consequently, I don't rate the hotel as a great value.  I will stay there again when I visit Tomball and require a suite type room.  I have no interest in Staybridge Suites, financial or otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r459847336-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>459847336</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>New/Clean hotel, great rooms, food, and staff!</t>
+  </si>
+  <si>
+    <t>I have been staying here for the past few months and have been really impressed! The staff has been really helpful with helping me get a good rate and is always there if I have any questions. They also showed me how to get extra IHG points, which I can use for free stays or other things. They recently hired new staff to help with the meals and I really enjoy the various breakfast items (especially the scrambled eggs and sausage) and the "Social" meals they prepare (for free!) on Mondays/Tuesdays/Wednesdays. Love hamburgers and potato salad night! There is also beer/wine in addition to soft drinks, juice, and water. Lately, they have been making tasty cookies as well! I stay in a different room each week when I check in and the room is always super clean and the bed is very comfy! I recently stayed at the Holiday Inn Express in town and the beds were a lot less comfortable, so I am glad I am staying at Staybridge again. I have also used the "Pantry", which is helpful if you just want a snack/ice cream and don't want to go out. The exercise room has a treadmill, free weights, exercise bike, elliptical machine and lots of TVs (and is rarely used from what I can see). I have also seen the Pizza Hut delivery guy deliver pizzas to rooms, so that's good too if you don't want to...I have been staying here for the past few months and have been really impressed! The staff has been really helpful with helping me get a good rate and is always there if I have any questions. They also showed me how to get extra IHG points, which I can use for free stays or other things. They recently hired new staff to help with the meals and I really enjoy the various breakfast items (especially the scrambled eggs and sausage) and the "Social" meals they prepare (for free!) on Mondays/Tuesdays/Wednesdays. Love hamburgers and potato salad night! There is also beer/wine in addition to soft drinks, juice, and water. Lately, they have been making tasty cookies as well! I stay in a different room each week when I check in and the room is always super clean and the bed is very comfy! I recently stayed at the Holiday Inn Express in town and the beds were a lot less comfortable, so I am glad I am staying at Staybridge again. I have also used the "Pantry", which is helpful if you just want a snack/ice cream and don't want to go out. The exercise room has a treadmill, free weights, exercise bike, elliptical machine and lots of TVs (and is rarely used from what I can see). I have also seen the Pizza Hut delivery guy deliver pizzas to rooms, so that's good too if you don't want to go out to eat. I don't use the laundry services, but the machines are free to use. I just found out that they do dry cleaning too! The TV has all of the channels that I need and the Internet is fast too. I stream Netflix a lot and haven't had any issues at all. I am very happy with staying here and would highly recommend it to anyone coming to stay in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>I have been staying here for the past few months and have been really impressed! The staff has been really helpful with helping me get a good rate and is always there if I have any questions. They also showed me how to get extra IHG points, which I can use for free stays or other things. They recently hired new staff to help with the meals and I really enjoy the various breakfast items (especially the scrambled eggs and sausage) and the "Social" meals they prepare (for free!) on Mondays/Tuesdays/Wednesdays. Love hamburgers and potato salad night! There is also beer/wine in addition to soft drinks, juice, and water. Lately, they have been making tasty cookies as well! I stay in a different room each week when I check in and the room is always super clean and the bed is very comfy! I recently stayed at the Holiday Inn Express in town and the beds were a lot less comfortable, so I am glad I am staying at Staybridge again. I have also used the "Pantry", which is helpful if you just want a snack/ice cream and don't want to go out. The exercise room has a treadmill, free weights, exercise bike, elliptical machine and lots of TVs (and is rarely used from what I can see). I have also seen the Pizza Hut delivery guy deliver pizzas to rooms, so that's good too if you don't want to...I have been staying here for the past few months and have been really impressed! The staff has been really helpful with helping me get a good rate and is always there if I have any questions. They also showed me how to get extra IHG points, which I can use for free stays or other things. They recently hired new staff to help with the meals and I really enjoy the various breakfast items (especially the scrambled eggs and sausage) and the "Social" meals they prepare (for free!) on Mondays/Tuesdays/Wednesdays. Love hamburgers and potato salad night! There is also beer/wine in addition to soft drinks, juice, and water. Lately, they have been making tasty cookies as well! I stay in a different room each week when I check in and the room is always super clean and the bed is very comfy! I recently stayed at the Holiday Inn Express in town and the beds were a lot less comfortable, so I am glad I am staying at Staybridge again. I have also used the "Pantry", which is helpful if you just want a snack/ice cream and don't want to go out. The exercise room has a treadmill, free weights, exercise bike, elliptical machine and lots of TVs (and is rarely used from what I can see). I have also seen the Pizza Hut delivery guy deliver pizzas to rooms, so that's good too if you don't want to go out to eat. I don't use the laundry services, but the machines are free to use. I just found out that they do dry cleaning too! The TV has all of the channels that I need and the Internet is fast too. I stream Netflix a lot and haven't had any issues at all. I am very happy with staying here and would highly recommend it to anyone coming to stay in the area!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r448371601-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -372,6 +525,54 @@
     <t>On a business trip and chose Staybridge because of the great customer service at other locations. This one did not disappoint!Staff very friendly and helpful. Courtesy shuttle to and from my office.  This is a brand new location so everything is new and up to date. I love the "social hour" where they serve food and have free wine and beer on tap. I don't have to leave the property to go to dinner. Can't say enough about this chain- i look for a Staybridge whenever i travel! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r426500963-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>426500963</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair in the bathtub </t>
+  </si>
+  <si>
+    <t>I stayed here and found a 9 inch hair wrapped around the bathtub stopper.  I asked the front desk lady to have a deep cleaning of my room. When I returned for the day the bed had not been made, per policy.  $130 got me a room with a dirty bathtub and no housekeeping service.  Not a place I recommend. They restrict housekeeping to maximize their profits while not lowering their room rates. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded October 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here and found a 9 inch hair wrapped around the bathtub stopper.  I asked the front desk lady to have a deep cleaning of my room. When I returned for the day the bed had not been made, per policy.  $130 got me a room with a dirty bathtub and no housekeeping service.  Not a place I recommend. They restrict housekeeping to maximize their profits while not lowering their room rates. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r421594112-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>421594112</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Warning - only Single Bed rooms - no two beds at this hotel!!!</t>
+  </si>
+  <si>
+    <t>We BOOKED a two bed room and were told the hotel only has two of them and they were given to other guests.  Bait and Switch!  We brought a team of 17 YO baseball players and their parents.  Rooms have a kitchen for a family, but there is nowhere for a family to sleep.  Staff didn't care and shamed me for using Hotels.Com (kept saying it was Expedia even though I showed front desk our confirmation of 2 beds).  Also wouldn't let us move to a hotel that could accommodate guests who need two beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>We BOOKED a two bed room and were told the hotel only has two of them and they were given to other guests.  Bait and Switch!  We brought a team of 17 YO baseball players and their parents.  Rooms have a kitchen for a family, but there is nowhere for a family to sleep.  Staff didn't care and shamed me for using Hotels.Com (kept saying it was Expedia even though I showed front desk our confirmation of 2 beds).  Also wouldn't let us move to a hotel that could accommodate guests who need two beds.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r411411004-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -442,6 +643,57 @@
   </si>
   <si>
     <t>New Property, smaller rooms then most Staybridges, with small kitchenette, beds and do not offer different pillows and they caused me neck aches and staff does not really try to accommodate problems mostly when upper tier IHG member. nice out door pool and BBQ area and good breakfasts, Hope staff gets better at working on problems.Stormchaser says maybeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d9769549-r384010625-Staybridge_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>384010625</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5 Posh Accommodations; Pauper's Price </t>
+  </si>
+  <si>
+    <t>We needed a place to stay for a nights sleep. That is all. 
+What we got was an amazing apartment with luxury amenities at a price per night that was so reasonable, we contemplated staying a second night just because! 
+The cleanliness was outstanding. 
+The customer service from check in to check out was 5 star!  They even helped us professionally and kindly as we tried to locate some potentially lost jewelry of significant personal value. 
+The availability of towels, ample. 
+There was a fully stocked kitchen with complimentary microwave popcorn. 
+The explanation of room cleaning processes, a great addition. 
+Lots of plug ins. No crazy cords. Great decor. Flow. I mean, wow! 
+Entry from the highway was a little sketchy. If you miss the ONE obscurely entrance/exit, you are forced to U-turn in the highway or drive down a considerable distance. 
+The lighting in the rooms is TOO fluorescent blue! Studies have linked these kinds of bulbs to migraines and overstimulation of the brain. Luckily the vent-a-hood had a natural bulb to save my brain while trying to wake up. 
+The coffee pot would not plug into the outlet, leaving this amenity unusable and risky of some overzealous individual (never force a plug into a socket). 
+The complementary coffee at 6 am was cold and left over from the night before. 
+The insulation was good. I could hear light footprint activity in the room above after 10p but it...We needed a place to stay for a nights sleep. That is all. What we got was an amazing apartment with luxury amenities at a price per night that was so reasonable, we contemplated staying a second night just because! The cleanliness was outstanding. The customer service from check in to check out was 5 star!  They even helped us professionally and kindly as we tried to locate some potentially lost jewelry of significant personal value. The availability of towels, ample. There was a fully stocked kitchen with complimentary microwave popcorn. The explanation of room cleaning processes, a great addition. Lots of plug ins. No crazy cords. Great decor. Flow. I mean, wow! Entry from the highway was a little sketchy. If you miss the ONE obscurely entrance/exit, you are forced to U-turn in the highway or drive down a considerable distance. The lighting in the rooms is TOO fluorescent blue! Studies have linked these kinds of bulbs to migraines and overstimulation of the brain. Luckily the vent-a-hood had a natural bulb to save my brain while trying to wake up. The coffee pot would not plug into the outlet, leaving this amenity unusable and risky of some overzealous individual (never force a plug into a socket). The complementary coffee at 6 am was cold and left over from the night before. The insulation was good. I could hear light footprint activity in the room above after 10p but it didn't keep me awake. Room temps were pre set and COLD! The breakfast bar was amazing!!!!! Lots of healthy options like fresh fruits, eggs, boiled eggs and yogurts. Compared to other suite style hotels, this one certainly stood out in all areas. Overall, I recommend this location and hotel for a quality stay with lots of perks and efficient and professionally friendly staff who understand flow. A true 4.5! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Jeff M, General Manager at Staybridge Suites Tomball, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for a nights sleep. That is all. 
+What we got was an amazing apartment with luxury amenities at a price per night that was so reasonable, we contemplated staying a second night just because! 
+The cleanliness was outstanding. 
+The customer service from check in to check out was 5 star!  They even helped us professionally and kindly as we tried to locate some potentially lost jewelry of significant personal value. 
+The availability of towels, ample. 
+There was a fully stocked kitchen with complimentary microwave popcorn. 
+The explanation of room cleaning processes, a great addition. 
+Lots of plug ins. No crazy cords. Great decor. Flow. I mean, wow! 
+Entry from the highway was a little sketchy. If you miss the ONE obscurely entrance/exit, you are forced to U-turn in the highway or drive down a considerable distance. 
+The lighting in the rooms is TOO fluorescent blue! Studies have linked these kinds of bulbs to migraines and overstimulation of the brain. Luckily the vent-a-hood had a natural bulb to save my brain while trying to wake up. 
+The coffee pot would not plug into the outlet, leaving this amenity unusable and risky of some overzealous individual (never force a plug into a socket). 
+The complementary coffee at 6 am was cold and left over from the night before. 
+The insulation was good. I could hear light footprint activity in the room above after 10p but it...We needed a place to stay for a nights sleep. That is all. What we got was an amazing apartment with luxury amenities at a price per night that was so reasonable, we contemplated staying a second night just because! The cleanliness was outstanding. The customer service from check in to check out was 5 star!  They even helped us professionally and kindly as we tried to locate some potentially lost jewelry of significant personal value. The availability of towels, ample. There was a fully stocked kitchen with complimentary microwave popcorn. The explanation of room cleaning processes, a great addition. Lots of plug ins. No crazy cords. Great decor. Flow. I mean, wow! Entry from the highway was a little sketchy. If you miss the ONE obscurely entrance/exit, you are forced to U-turn in the highway or drive down a considerable distance. The lighting in the rooms is TOO fluorescent blue! Studies have linked these kinds of bulbs to migraines and overstimulation of the brain. Luckily the vent-a-hood had a natural bulb to save my brain while trying to wake up. The coffee pot would not plug into the outlet, leaving this amenity unusable and risky of some overzealous individual (never force a plug into a socket). The complementary coffee at 6 am was cold and left over from the night before. The insulation was good. I could hear light footprint activity in the room above after 10p but it didn't keep me awake. Room temps were pre set and COLD! The breakfast bar was amazing!!!!! Lots of healthy options like fresh fruits, eggs, boiled eggs and yogurts. Compared to other suite style hotels, this one certainly stood out in all areas. Overall, I recommend this location and hotel for a quality stay with lots of perks and efficient and professionally friendly staff who understand flow. A true 4.5! More</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1228,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -993,10 +1245,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1012,7 +1268,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1021,25 +1277,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1050,10 +1306,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1069,7 +1329,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1078,25 +1338,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1110,7 +1370,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1126,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1135,47 +1395,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1191,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1200,49 +1452,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>84</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1282,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -1297,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1561,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1328,49 +1570,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -1386,7 +1622,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1395,25 +1631,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1423,19 +1659,19 @@
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
         <v>108</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1451,7 +1687,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1460,32 +1696,38 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>112</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>114</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>97</v>
-      </c>
       <c r="O10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1533,13 +1775,13 @@
         <v>122</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1557,7 +1799,7 @@
         <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -1573,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1582,35 +1824,35 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
         <v>126</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>127</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>128</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>129</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1659,37 +1901,606 @@
         <v>137</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
         <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
         <v>139</v>
       </c>
-      <c r="X13" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>141</v>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63983</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
